--- a/output/LESTE_22672424000135.xlsx
+++ b/output/LESTE_22672424000135.xlsx
@@ -1087,10 +1087,10 @@
         <v>44165</v>
       </c>
       <c r="B64">
-        <v>0.8161832</v>
+        <v>0.8161411999999999</v>
       </c>
       <c r="C64">
-        <v>0.001745486780996064</v>
+        <v>0.001722320995493298</v>
       </c>
     </row>
   </sheetData>

--- a/output/LESTE_22672424000135.xlsx
+++ b/output/LESTE_22672424000135.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>LESTE CREDIT FUNDO DE INVESTIMENTO MULTIMERCADO CRÉDITO PRIVADO INVESTIMENTO NO EXTERIOR</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,711 +383,522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42277</v>
       </c>
       <c r="B2">
-        <v>-0.001122100000000015</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42308</v>
       </c>
       <c r="B3">
-        <v>0.002814400000000106</v>
-      </c>
-      <c r="C3">
         <v>0.003940922108698341</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42338</v>
       </c>
       <c r="B4">
-        <v>0.007589199999999963</v>
-      </c>
-      <c r="C4">
         <v>0.004761399517198672</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42369</v>
       </c>
       <c r="B5">
-        <v>0.01540889999999995</v>
-      </c>
-      <c r="C5">
         <v>0.007760801723559529</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42400</v>
       </c>
       <c r="B6">
-        <v>0.02739340000000001</v>
-      </c>
-      <c r="C6">
         <v>0.01180263438699436</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42429</v>
       </c>
       <c r="B7">
-        <v>0.0418080999999999</v>
-      </c>
-      <c r="C7">
         <v>0.0140303607167418</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42460</v>
       </c>
       <c r="B8">
-        <v>0.06047120000000006</v>
-      </c>
-      <c r="C8">
         <v>0.0179141436892265</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42490</v>
       </c>
       <c r="B9">
-        <v>0.07582479999999991</v>
-      </c>
-      <c r="C9">
         <v>0.01447809238006648</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42521</v>
       </c>
       <c r="B10">
-        <v>0.09295739999999997</v>
-      </c>
-      <c r="C10">
         <v>0.01592508371251533</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42551</v>
       </c>
       <c r="B11">
-        <v>0.1117534</v>
-      </c>
-      <c r="C11">
         <v>0.01719737658576626</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42582</v>
       </c>
       <c r="B12">
-        <v>0.1290268999999999</v>
-      </c>
-      <c r="C12">
         <v>0.01553716858432819</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42613</v>
       </c>
       <c r="B13">
-        <v>0.1470978000000001</v>
-      </c>
-      <c r="C13">
         <v>0.01600573024433705</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42643</v>
       </c>
       <c r="B14">
-        <v>0.1627544999999999</v>
-      </c>
-      <c r="C14">
         <v>0.01364896698433204</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42674</v>
       </c>
       <c r="B15">
-        <v>0.1781955</v>
-      </c>
-      <c r="C15">
         <v>0.01327967339623282</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42704</v>
       </c>
       <c r="B16">
-        <v>0.1923657999999999</v>
-      </c>
-      <c r="C16">
         <v>0.01202712113566884</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42735</v>
       </c>
       <c r="B17">
-        <v>0.2122827</v>
-      </c>
-      <c r="C17">
         <v>0.01670368271213429</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42766</v>
       </c>
       <c r="B18">
-        <v>0.2291064</v>
-      </c>
-      <c r="C18">
         <v>0.01387770360824248</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42794</v>
       </c>
       <c r="B19">
-        <v>0.2425767999999999</v>
-      </c>
-      <c r="C19">
         <v>0.01095950684171831</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42825</v>
       </c>
       <c r="B20">
-        <v>0.2602039</v>
-      </c>
-      <c r="C20">
         <v>0.01418592396059548</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42855</v>
       </c>
       <c r="B21">
-        <v>0.2746725999999999</v>
-      </c>
-      <c r="C21">
         <v>0.01148123728231587</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42886</v>
       </c>
       <c r="B22">
-        <v>0.2885599000000001</v>
-      </c>
-      <c r="C22">
         <v>0.01089479761312839</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42916</v>
       </c>
       <c r="B23">
-        <v>0.3032474999999999</v>
-      </c>
-      <c r="C23">
         <v>0.01139846118135424</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42947</v>
       </c>
       <c r="B24">
-        <v>0.3161262</v>
-      </c>
-      <c r="C24">
         <v>0.009882006295811152</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42978</v>
       </c>
       <c r="B25">
-        <v>0.3310611999999999</v>
-      </c>
-      <c r="C25">
         <v>0.01134769598842422</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43008</v>
       </c>
       <c r="B26">
-        <v>0.3460774</v>
-      </c>
-      <c r="C26">
         <v>0.01128137459043965</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43039</v>
       </c>
       <c r="B27">
-        <v>0.3606235</v>
-      </c>
-      <c r="C27">
         <v>0.01080628795937</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43069</v>
       </c>
       <c r="B28">
-        <v>0.3755440000000001</v>
-      </c>
-      <c r="C28">
         <v>0.01096592848793221</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43100</v>
       </c>
       <c r="B29">
-        <v>0.4020402999999999</v>
-      </c>
-      <c r="C29">
         <v>0.0192624154516321</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43131</v>
       </c>
       <c r="B30">
-        <v>0.4177853</v>
-      </c>
-      <c r="C30">
         <v>0.01123006235983381</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43159</v>
       </c>
       <c r="B31">
-        <v>0.4300496</v>
-      </c>
-      <c r="C31">
         <v>0.008650322443038538</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43190</v>
       </c>
       <c r="B32">
-        <v>0.4441096</v>
-      </c>
-      <c r="C32">
         <v>0.009831826812160882</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43220</v>
       </c>
       <c r="B33">
-        <v>0.4560226999999999</v>
-      </c>
-      <c r="C33">
         <v>0.008249443117059663</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43251</v>
       </c>
       <c r="B34">
-        <v>0.4698944</v>
-      </c>
-      <c r="C34">
         <v>0.009527117949466035</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43281</v>
       </c>
       <c r="B35">
-        <v>0.4871287</v>
-      </c>
-      <c r="C35">
         <v>0.01172485588080341</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43312</v>
       </c>
       <c r="B36">
-        <v>0.5068596000000001</v>
-      </c>
-      <c r="C36">
         <v>0.01326778240511395</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43343</v>
       </c>
       <c r="B37">
-        <v>0.5230060000000001</v>
-      </c>
-      <c r="C37">
         <v>0.01071526504526377</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43373</v>
       </c>
       <c r="B38">
-        <v>0.5414222</v>
-      </c>
-      <c r="C38">
         <v>0.01209200751671369</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43404</v>
       </c>
       <c r="B39">
-        <v>0.5532538</v>
-      </c>
-      <c r="C39">
         <v>0.007675768520785553</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43434</v>
       </c>
       <c r="B40">
-        <v>0.5645106</v>
-      </c>
-      <c r="C40">
         <v>0.007247238023817992</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43465</v>
       </c>
       <c r="B41">
-        <v>0.5747633999999999</v>
-      </c>
-      <c r="C41">
         <v>0.006553359242180923</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43496</v>
       </c>
       <c r="B42">
-        <v>0.5907804999999999</v>
-      </c>
-      <c r="C42">
         <v>0.01017111522911951</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43524</v>
       </c>
       <c r="B43">
-        <v>0.6022396000000001</v>
-      </c>
-      <c r="C43">
         <v>0.007203445101319872</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43555</v>
       </c>
       <c r="B44">
-        <v>0.6178477</v>
-      </c>
-      <c r="C44">
         <v>0.009741426937643904</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43585</v>
       </c>
       <c r="B45">
-        <v>0.6338779999999999</v>
-      </c>
-      <c r="C45">
         <v>0.009908411032756526</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43616</v>
       </c>
       <c r="B46">
-        <v>0.6499381</v>
-      </c>
-      <c r="C46">
         <v>0.00982943646955281</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43646</v>
       </c>
       <c r="B47">
-        <v>0.6628065000000001</v>
-      </c>
-      <c r="C47">
         <v>0.007799322895810423</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43677</v>
       </c>
       <c r="B48">
-        <v>0.6789305999999999</v>
-      </c>
-      <c r="C48">
         <v>0.009696919034174911</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43708</v>
       </c>
       <c r="B49">
-        <v>0.693335</v>
-      </c>
-      <c r="C49">
         <v>0.008579508885000919</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43738</v>
       </c>
       <c r="B50">
-        <v>0.7066897000000001</v>
-      </c>
-      <c r="C50">
         <v>0.007886626095840565</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43769</v>
       </c>
       <c r="B51">
-        <v>0.7194423999999999</v>
-      </c>
-      <c r="C51">
         <v>0.007472184310949981</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43799</v>
       </c>
       <c r="B52">
-        <v>0.7321709999999999</v>
-      </c>
-      <c r="C52">
         <v>0.007402748705045203</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43830</v>
       </c>
       <c r="B53">
-        <v>0.7443782999999999</v>
-      </c>
-      <c r="C53">
         <v>0.007047398899993063</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43861</v>
       </c>
       <c r="B54">
-        <v>0.7576448</v>
-      </c>
-      <c r="C54">
         <v>0.007605288371220986</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43890</v>
       </c>
       <c r="B55">
-        <v>0.7694923</v>
-      </c>
-      <c r="C55">
         <v>0.006740554177954605</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43921</v>
       </c>
       <c r="B56">
-        <v>0.7836285000000001</v>
-      </c>
-      <c r="C56">
         <v>0.007988845161970959</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43951</v>
       </c>
       <c r="B57">
-        <v>0.7957380999999999</v>
-      </c>
-      <c r="C57">
         <v>0.00678930618119189</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43982</v>
       </c>
       <c r="B58">
-        <v>0.8064703</v>
-      </c>
-      <c r="C58">
         <v>0.005976483987280901</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>44012</v>
       </c>
       <c r="B59">
-        <v>0.8155768000000001</v>
-      </c>
-      <c r="C59">
         <v>0.005041046066464494</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>44043</v>
       </c>
       <c r="B60">
-        <v>0.7902389000000001</v>
-      </c>
-      <c r="C60">
         <v>-0.01395584036984832</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>44074</v>
       </c>
       <c r="B61">
-        <v>0.7987469</v>
-      </c>
-      <c r="C61">
         <v>0.004752438347753518</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>44104</v>
       </c>
       <c r="B62">
-        <v>0.8064427999999999</v>
-      </c>
-      <c r="C62">
         <v>0.004278478534139429</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>44135</v>
       </c>
       <c r="B63">
-        <v>0.8130185999999999</v>
-      </c>
-      <c r="C63">
         <v>0.003640192758940453</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>44165</v>
       </c>
       <c r="B64">
-        <v>0.8161411999999999</v>
-      </c>
-      <c r="C64">
-        <v>0.001722320995493298</v>
+        <v>0.002082162863635384</v>
       </c>
     </row>
   </sheetData>
